--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -8,21 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531F698-4E3A-4FD4-AAFC-A65AB20B88D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF611DF-D6F3-4667-87B0-13658E368B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="9" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
-    <sheet name="LogInDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="PushNotification" sheetId="8" r:id="rId2"/>
     <sheet name="SiteName" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId4"/>
+    <sheet name="SelectCategory" sheetId="10" r:id="rId4"/>
     <sheet name="ManageLocation" sheetId="5" r:id="rId5"/>
     <sheet name="SearchLocationWithName" sheetId="6" r:id="rId6"/>
     <sheet name="ManageSlider" sheetId="7" r:id="rId7"/>
-    <sheet name="InvalidDetails" sheetId="2" r:id="rId8"/>
-    <sheet name="InvalidPassword" sheetId="3" r:id="rId9"/>
-    <sheet name="LogOutVerify" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,20 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>addmin</t>
-  </si>
-  <si>
-    <t>https://groceryapp.uniqassosiates.com/admin/login</t>
-  </si>
-  <si>
-    <t>ADMMin</t>
-  </si>
-  <si>
     <t>https://groceryapp.uniqassosiates.com/admin/list-location</t>
   </si>
   <si>
@@ -61,13 +49,43 @@
   </si>
   <si>
     <t>https://groceryapp.uniqassosiates.com/admin/home</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>Push Notifications</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>mega offer</t>
+  </si>
+  <si>
+    <t>New Church Street</t>
+  </si>
+  <si>
+    <t>garden street</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +97,18 @@
       <sz val="7"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -102,9 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FFF8D3-57B6-463F-90D3-8FEEAC4CB4E5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,43 +474,39 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7104C35-6404-413D-B012-0A4E26B700C7}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BADA4E9-97AF-48CD-A5DC-73DF09224AF1}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BADA4E9-97AF-48CD-A5DC-73DF09224AF1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -492,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -503,36 +535,78 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342AF692-D251-4E2F-8F3A-2833CEFA1B6B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A63A5D-3BC0-45B1-9B37-CDE6D2D0D779}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A63A5D-3BC0-45B1-9B37-CDE6D2D0D779}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -548,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +632,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AF3FDF-DBA9-4244-9D2E-C7C2F9883399}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709AF2DD-B451-4C96-B278-8AC9667E69E6}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD458F6-016D-4188-A6C8-2DA0FE60E880}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF611DF-D6F3-4667-87B0-13658E368B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FB006-3508-48C8-8D96-01D4CE580913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="7" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="PushNotification" sheetId="8" r:id="rId2"/>
-    <sheet name="SiteName" sheetId="9" r:id="rId3"/>
+    <sheet name="HomePage" sheetId="9" r:id="rId3"/>
     <sheet name="SelectCategory" sheetId="10" r:id="rId4"/>
     <sheet name="ManageLocation" sheetId="5" r:id="rId5"/>
     <sheet name="SearchLocationWithName" sheetId="6" r:id="rId6"/>
-    <sheet name="ManageSlider" sheetId="7" r:id="rId7"/>
+    <sheet name="ManagePaymentMethods" sheetId="11" r:id="rId7"/>
+    <sheet name="ManageOfferCode" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId9"/>
+    <sheet name="ManageSlider" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>admin</t>
   </si>
@@ -79,6 +82,15 @@
   </si>
   <si>
     <t>garden street</t>
+  </si>
+  <si>
+    <t>Manage Payment Methods</t>
+  </si>
+  <si>
+    <t>Thousand</t>
+  </si>
+  <si>
+    <t>thousand</t>
   </si>
 </sst>
 </file>
@@ -488,6 +500,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AF3FDF-DBA9-4244-9D2E-C7C2F9883399}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BADA4E9-97AF-48CD-A5DC-73DF09224AF1}">
   <dimension ref="A1:B1"/>
@@ -565,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A63A5D-3BC0-45B1-9B37-CDE6D2D0D779}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -631,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AF3FDF-DBA9-4244-9D2E-C7C2F9883399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138D9BA-2B77-4083-981A-CE4BC8A24F99}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -640,20 +680,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B034A99-68DD-4CDC-8346-937B9E8239D9}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7776-F9AE-4546-90FE-D0FA494D00CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FB006-3508-48C8-8D96-01D4CE580913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEF10F-ACA6-4632-92C4-434B584C6F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="7" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="5" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="HomePage" sheetId="9" r:id="rId3"/>
     <sheet name="SelectCategory" sheetId="10" r:id="rId4"/>
     <sheet name="ManageLocation" sheetId="5" r:id="rId5"/>
-    <sheet name="SearchLocationWithName" sheetId="6" r:id="rId6"/>
-    <sheet name="ManagePaymentMethods" sheetId="11" r:id="rId7"/>
-    <sheet name="ManageOfferCode" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId9"/>
-    <sheet name="ManageSlider" sheetId="7" r:id="rId10"/>
+    <sheet name="ManagePages" sheetId="15" r:id="rId6"/>
+    <sheet name="SearchLocationWithName" sheetId="6" r:id="rId7"/>
+    <sheet name="ManagePaymentMethods" sheetId="11" r:id="rId8"/>
+    <sheet name="ManageOfferCode" sheetId="12" r:id="rId9"/>
+    <sheet name="ManageDeliveryBoy" sheetId="14" r:id="rId10"/>
+    <sheet name="ManageUser" sheetId="13" r:id="rId11"/>
+    <sheet name="ManageSlider" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
@@ -91,13 +93,46 @@
   </si>
   <si>
     <t>thousand</t>
+  </si>
+  <si>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>anjana</t>
+  </si>
+  <si>
+    <t>Design &amp; Developed by</t>
+  </si>
+  <si>
+    <t>SUMMER50</t>
+  </si>
+  <si>
+    <t>Manage Delivery Boy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>annu</t>
+  </si>
+  <si>
+    <t>sdfsa</t>
+  </si>
+  <si>
+    <t>rgba(220, 53, 69, 1)</t>
+  </si>
+  <si>
+    <t>Ginumariya Raju</t>
+  </si>
+  <si>
+    <t>cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +158,27 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,10 +190,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -153,8 +203,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,11 +556,93 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A5762D-0B0A-432C-8456-22CC25469278}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7776-F9AE-4546-90FE-D0FA494D00CE}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AF3FDF-DBA9-4244-9D2E-C7C2F9883399}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,6 +659,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -553,19 +695,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312953F-885D-454B-A151-A90BAF4A66DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -606,7 +761,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +787,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -651,6 +806,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9189E9F7-8822-4CA9-958B-A26771644E50}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA189BB-C868-4A30-9FFD-6CB4E416B2AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -670,7 +848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138D9BA-2B77-4083-981A-CE4BC8A24F99}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -697,15 +875,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B034A99-68DD-4CDC-8346-937B9E8239D9}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -718,19 +899,12 @@
         <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7776-F9AE-4546-90FE-D0FA494D00CE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEF10F-ACA6-4632-92C4-434B584C6F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9D28E-E3DE-48E8-A526-092A2C7C8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="5" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="9" activeTab="11" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="SelectCategory" sheetId="10" r:id="rId4"/>
     <sheet name="ManageLocation" sheetId="5" r:id="rId5"/>
     <sheet name="ManagePages" sheetId="15" r:id="rId6"/>
-    <sheet name="SearchLocationWithName" sheetId="6" r:id="rId7"/>
-    <sheet name="ManagePaymentMethods" sheetId="11" r:id="rId8"/>
-    <sheet name="ManageOfferCode" sheetId="12" r:id="rId9"/>
-    <sheet name="ManageDeliveryBoy" sheetId="14" r:id="rId10"/>
-    <sheet name="ManageUser" sheetId="13" r:id="rId11"/>
-    <sheet name="ManageSlider" sheetId="7" r:id="rId12"/>
+    <sheet name="ManageCategory" sheetId="16" r:id="rId7"/>
+    <sheet name="SearchLocationWithName" sheetId="6" r:id="rId8"/>
+    <sheet name="ManagePaymentMethods" sheetId="11" r:id="rId9"/>
+    <sheet name="ManageOfferCode" sheetId="12" r:id="rId10"/>
+    <sheet name="ManageDeliveryBoy" sheetId="14" r:id="rId11"/>
+    <sheet name="ManageUser" sheetId="13" r:id="rId12"/>
+    <sheet name="ManageSlider" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -122,10 +123,13 @@
     <t>rgba(220, 53, 69, 1)</t>
   </si>
   <si>
-    <t>Ginumariya Raju</t>
-  </si>
-  <si>
     <t>cap</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>NISHA P ALIYAR</t>
   </si>
 </sst>
 </file>
@@ -556,6 +560,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B034A99-68DD-4CDC-8346-937B9E8239D9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A5762D-0B0A-432C-8456-22CC25469278}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -602,11 +640,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7776-F9AE-4546-90FE-D0FA494D00CE}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -625,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -637,7 +675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AF3FDF-DBA9-4244-9D2E-C7C2F9883399}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -809,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9189E9F7-8822-4CA9-958B-A26771644E50}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -817,18 +855,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE9A15-E28B-41A7-8C6B-24E07BAB060E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA189BB-C868-4A30-9FFD-6CB4E416B2AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -848,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138D9BA-2B77-4083-981A-CE4BC8A24F99}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -873,38 +929,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B034A99-68DD-4CDC-8346-937B9E8239D9}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9D28E-E3DE-48E8-A526-092A2C7C8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AFEF9-ACB4-4389-B9B1-877E9F62B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="9" activeTab="11" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>admin</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Manage Delivery Boy</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>annu</t>
-  </si>
-  <si>
     <t>sdfsa</t>
   </si>
   <si>
@@ -130,13 +124,25 @@
   </si>
   <si>
     <t>NISHA P ALIYAR</t>
+  </si>
+  <si>
+    <t>gentleuser</t>
+  </si>
+  <si>
+    <t>gentlepass</t>
+  </si>
+  <si>
+    <t>janvi</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +176,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,6 +223,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,7 +611,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,26 +625,26 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7776-F9AE-4546-90FE-D0FA494D00CE}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -699,7 +712,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -796,19 +809,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A63A5D-3BC0-45B1-9B37-CDE6D2D0D779}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -818,23 +832,26 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -855,10 +872,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
+++ b/SevenrmartSupermarket/src/main/java/Resources/ProjectTestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROJECTS\eclipse-workspace\SevenrmartSupermarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AFEF9-ACB4-4389-B9B1-877E9F62B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1465E5-E2D4-484E-8E03-719327B5C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
+    <workbookView xWindow="4248" yWindow="2376" windowWidth="17280" windowHeight="8964" firstSheet="9" activeTab="10" xr2:uid="{AF1BC2BB-CBA9-4CC0-AF8C-1DE4E652C66E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>admin</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Manage Users</t>
   </si>
   <si>
-    <t>anjana</t>
-  </si>
-  <si>
     <t>Design &amp; Developed by</t>
   </si>
   <si>
@@ -120,22 +117,28 @@
     <t>cap</t>
   </si>
   <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>NISHA P ALIYAR</t>
-  </si>
-  <si>
-    <t>gentleuser</t>
-  </si>
-  <si>
-    <t>gentlepass</t>
-  </si>
-  <si>
-    <t>janvi</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Incaberries</t>
+  </si>
+  <si>
+    <t>Ruby Varghese</t>
+  </si>
+  <si>
+    <t>sreelekshmi gopan</t>
+  </si>
+  <si>
+    <t>Karuna Thomas</t>
+  </si>
+  <si>
+    <t>dolly</t>
+  </si>
+  <si>
+    <t>passhat</t>
+  </si>
+  <si>
+    <t>userhat</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FFF8D3-57B6-463F-90D3-8FEEAC4CB4E5}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,6 +569,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -598,7 +611,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -610,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A5762D-0B0A-432C-8456-22CC25469278}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,19 +635,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,7 +657,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -664,22 +677,23 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +726,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +783,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -811,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A63A5D-3BC0-45B1-9B37-CDE6D2D0D779}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -833,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,10 +886,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -892,12 +906,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
